--- a/Féléves feladat/result.xlsx
+++ b/Féléves feladat/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8EC809-EA62-4877-A7A5-B01DAC44F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F33597-AD82-4CB0-AC9A-B72341B4EAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D61D3D8-F0B1-41AC-B3DB-AD5BBE81D893}"/>
   </bookViews>
@@ -270,6 +270,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,12 +283,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1635,7 +1635,7 @@
                   <c:v>5.0020000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1E-3</c:v>
+                  <c:v>5.0020000000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,34 +1711,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0010000000000002E-3</c:v>
+                  <c:v>1.0009999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0119999999999999E-3</c:v>
+                  <c:v>3.006E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0209999999999998E-3</c:v>
+                  <c:v>2.9970000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9810000000000001E-3</c:v>
+                  <c:v>3.9969999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9919999999999998E-3</c:v>
+                  <c:v>4.0010000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9949999999999998E-3</c:v>
+                  <c:v>4.999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9840000000000001E-3</c:v>
+                  <c:v>5.9890000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0019999999999999E-3</c:v>
+                  <c:v>5.0010000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0070000000000001E-3</c:v>
+                  <c:v>5.999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9980000000000002E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,34 +1814,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.006E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0010000000000002E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0149999999999999E-3</c:v>
+                  <c:v>3.999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.019E-3</c:v>
+                  <c:v>4.9969999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.003E-3</c:v>
+                  <c:v>4.0020000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.611E-3</c:v>
+                  <c:v>4.9899999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9910000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0149999999999999E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0009999999999999E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9970000000000001E-3</c:v>
+                  <c:v>6.0020000000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4129,7 +4129,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4138,51 +4138,51 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>1.9980000000000002E-3</v>
       </c>
-      <c r="C2" s="11">
-        <v>3.0010000000000002E-3</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2.006E-3</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="C2" s="8">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="D2" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F2" s="11">
+      <c r="E2" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="F2" s="8">
         <v>1E-3</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="8">
         <v>1E-3</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>4</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <v>5</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <v>5</v>
       </c>
     </row>
@@ -4194,10 +4194,10 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C3" s="1">
-        <v>3.0119999999999999E-3</v>
+        <v>3.006E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0010000000000002E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E3" s="1">
         <v>2E-3</v>
@@ -4226,10 +4226,10 @@
         <v>3.999E-3</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0209999999999998E-3</v>
+        <v>2.9970000000000001E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>2.0149999999999999E-3</v>
+        <v>3.999E-3</v>
       </c>
       <c r="E4" s="1">
         <v>3.0000000000000001E-3</v>
@@ -4258,10 +4258,10 @@
         <v>4.999E-3</v>
       </c>
       <c r="C5" s="1">
-        <v>1.9810000000000001E-3</v>
+        <v>3.9969999999999997E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>2.019E-3</v>
+        <v>4.9969999999999997E-3</v>
       </c>
       <c r="E5" s="1">
         <v>3.0000000000000001E-3</v>
@@ -4290,10 +4290,10 @@
         <v>5.0569999999999999E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>1.9919999999999998E-3</v>
+        <v>4.0010000000000002E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>2.003E-3</v>
+        <v>4.0020000000000003E-3</v>
       </c>
       <c r="E6" s="1">
         <v>4.0000000000000001E-3</v>
@@ -4322,10 +4322,10 @@
         <v>5.0010000000000002E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>1.9949999999999998E-3</v>
+        <v>4.999E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>1.611E-3</v>
+        <v>4.9899999999999996E-3</v>
       </c>
       <c r="E7" s="1">
         <v>5.0000000000000001E-3</v>
@@ -4354,10 +4354,10 @@
         <v>4.999E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.9840000000000001E-3</v>
+        <v>5.9890000000000004E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>1.9910000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
         <v>5.0000000000000001E-3</v>
@@ -4386,10 +4386,10 @@
         <v>4.0029999999999996E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0019999999999999E-3</v>
+        <v>5.0010000000000002E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>2.0149999999999999E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
         <v>7.0000000000000001E-3</v>
@@ -4418,10 +4418,10 @@
         <v>5.0020000000000004E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>3.0070000000000001E-3</v>
+        <v>5.999E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>1.0009999999999999E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E10" s="1">
         <v>7.0000000000000001E-3</v>
@@ -4447,13 +4447,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="2">
-        <v>1E-3</v>
+        <v>5.0020000000000004E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>1.9980000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.9970000000000001E-3</v>
+        <v>6.0020000000000004E-3</v>
       </c>
       <c r="E11" s="1">
         <v>7.0000000000000001E-3</v>
